--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1901018.025911868</v>
+        <v>1898520.859735002</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673418</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>251.8301946662192</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772223</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,16 +1534,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572838</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124555</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201523</v>
       </c>
       <c r="X14" t="n">
-        <v>298.1743766680021</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C17" t="n">
-        <v>234.2778492119367</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
         <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433915</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>15.23748855099066</v>
       </c>
       <c r="T17" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247945</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475221</v>
+        <v>93.36014869443302</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938408</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713568</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652974</v>
+        <v>2.402147172652924</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425678</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>195.0330462819489</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C20" t="n">
-        <v>219.0403606609432</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
         <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433904</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099076</v>
+        <v>15.23748855099066</v>
       </c>
       <c r="T20" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>75.75686904398545</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938408</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172653024</v>
+        <v>2.402147172652924</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425681</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>194.7218861509694</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149097</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338225</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>271.2006563476371</v>
       </c>
       <c r="G23" t="n">
         <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099075</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024351</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
-        <v>234.0557112843924</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188685</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>85.88170694475212</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102727</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938408</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574616</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184314</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713569</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172653009</v>
+        <v>2.402147172652924</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>98.27907327679885</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684278</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X25" t="n">
-        <v>131.7593821518521</v>
+        <v>134.2197033343948</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,10 +2555,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
@@ -2567,10 +2567,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>23.49618762498341</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>253.0545870713073</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,7 +2795,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>295.0334292796405</v>
+        <v>178.7194680135083</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
@@ -2804,10 +2804,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865175</v>
+        <v>285.8032029865176</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940445</v>
+        <v>268.3422530940446</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437199</v>
+        <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952987</v>
+        <v>284.9997313952988</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647483</v>
+        <v>309.9454070647485</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764904</v>
+        <v>313.9910869764905</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103574</v>
+        <v>197.6771257103575</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121276</v>
+        <v>12.25712311121283</v>
       </c>
       <c r="T32" t="n">
         <v>106.9873314626571</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819389</v>
+        <v>154.064533281939</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931718</v>
+        <v>230.8216197931719</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404499</v>
+        <v>252.31033004045</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015059</v>
+        <v>272.800462001506</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790905</v>
+        <v>289.3072999790906</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.5674642579491</v>
+        <v>82.9013415049743</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166476</v>
+        <v>70.31618242166483</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124929</v>
+        <v>51.68483434124936</v>
       </c>
       <c r="E34" t="n">
-        <v>49.5033239696061</v>
+        <v>49.50332396960617</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596825</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206515</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735771</v>
+        <v>47.82437623735778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447882</v>
+        <v>92.8383866544789</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992061</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>189.2811995286499</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596279</v>
+        <v>224.2584824126022</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120741</v>
+        <v>128.7790167120742</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007097</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092336</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621592</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333703</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>164.0711673124573</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>239.4866237999594</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,7 +3487,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>98.69583361727734</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>230.7340562419016</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353746</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429026</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
         <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>90.95618068285808</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
         <v>47.73632779482629</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439391</v>
       </c>
       <c r="S43" t="n">
         <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503657</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247762</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.6864980364929</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010743</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846425</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482632</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621586</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>231.0452163728798</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1640.517726580261</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C11" t="n">
-        <v>1640.517726580261</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573979</v>
+        <v>990.5514538055365</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>652.2128341553655</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>652.2128341553655</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5179,7 +5179,7 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268785</v>
@@ -5188,34 +5188,34 @@
         <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781835</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.671205480648</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.764786084341</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3056.683942306251</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3056.683942306251</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.36491998421</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925622</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770419</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998332</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657642</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,16 +5455,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179563</v>
@@ -5473,13 +5473,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1696.355985625559</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795874</v>
+        <v>852.6459125918336</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861264</v>
+        <v>536.5592736983726</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272697</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T17" t="n">
-        <v>3214.527339889541</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U17" t="n">
-        <v>3055.896129059524</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.7325076121</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2561.863118238132</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2283.296625873199</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>1988.056559793534</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999837</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387324</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332769</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601619</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.02130239278</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064754</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.76045543161</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266133</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501179</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>522.2180850649281</v>
+        <v>427.3188191687809</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370212</v>
+        <v>353.2819021370207</v>
       </c>
       <c r="D19" t="n">
-        <v>298.064528620832</v>
+        <v>298.0645286208316</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345854</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328216</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G19" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H19" t="n">
-        <v>68.9385277176915</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088494</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1830.507929811467</v>
+        <v>1740.677472568994</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.640580277139</v>
+        <v>1613.810123034667</v>
       </c>
       <c r="U19" t="n">
-        <v>1414.537713402783</v>
+        <v>1324.70725616031</v>
       </c>
       <c r="V19" t="n">
-        <v>1159.853225196896</v>
+        <v>1070.022767954423</v>
       </c>
       <c r="W19" t="n">
-        <v>962.8501481444221</v>
+        <v>875.5048638136091</v>
       </c>
       <c r="X19" t="n">
-        <v>734.8605972464047</v>
+        <v>647.5153129155917</v>
       </c>
       <c r="Y19" t="n">
-        <v>608.9672839990212</v>
+        <v>521.6219996682082</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048797</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795874</v>
+        <v>852.645912591832</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861264</v>
+        <v>536.559273698371</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032411</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.13593731278</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482763</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035339</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661371</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296438</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216773</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,22 +5847,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199864</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>522.2180850649281</v>
+        <v>524.703257976587</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370212</v>
+        <v>448.1811680331674</v>
       </c>
       <c r="D22" t="n">
-        <v>298.064528620832</v>
+        <v>392.9637945169783</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345854</v>
+        <v>339.9499668307318</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328216</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H22" t="n">
-        <v>68.9385277176915</v>
+        <v>68.93852771769143</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1830.507929811465</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.640580277138</v>
+        <v>1608.741314380992</v>
       </c>
       <c r="U22" t="n">
-        <v>1506.95180638727</v>
+        <v>1319.638447506635</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.166584077529</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W22" t="n">
-        <v>1057.749414040569</v>
+        <v>870.4360551599343</v>
       </c>
       <c r="X22" t="n">
-        <v>829.7598631425514</v>
+        <v>737.3457701580636</v>
       </c>
       <c r="Y22" t="n">
-        <v>703.8665498951679</v>
+        <v>611.4524569106801</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.78273966892</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328752</v>
+        <v>863.5273202562187</v>
       </c>
       <c r="F23" t="n">
         <v>589.5872633394142</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J23" t="n">
         <v>255.6088755444966</v>
@@ -5999,40 +5999,40 @@
         <v>1573.994367154677</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724556</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603893</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.183800961072</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716753</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696797</v>
+        <v>3321.095826696799</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977166</v>
+        <v>3210.017344977167</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147149</v>
+        <v>3051.38613414715</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699725</v>
+        <v>2815.222512699726</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325757</v>
+        <v>2557.353123325759</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960826</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857817</v>
+        <v>1983.546564881161</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343965</v>
+        <v>941.7614826343961</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532696</v>
+        <v>767.3084533532691</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920184</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865628</v>
+        <v>459.1365886865624</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134479</v>
+        <v>312.6020307134474</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460666</v>
+        <v>176.238930546066</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393354</v>
+        <v>85.73703618393355</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760887</v>
+        <v>160.4070140760884</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564361</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691014</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591417</v>
       </c>
       <c r="N24" t="n">
-        <v>1686.168742145872</v>
+        <v>1686.168742145871</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.130021563927</v>
+        <v>2097.130021563926</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.62961304003</v>
+        <v>2407.629613040029</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.271170686629</v>
       </c>
       <c r="R24" t="n">
-        <v>2565.126817279145</v>
+        <v>2565.126817279144</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.688930772625</v>
+        <v>2435.688930772624</v>
       </c>
       <c r="T24" t="n">
         <v>2243.04593045048</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.978083584896</v>
+        <v>2014.978083584895</v>
       </c>
       <c r="V24" t="n">
         <v>1779.825975353153</v>
@@ -6111,7 +6111,7 @@
         <v>1317.737118419418</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.976819654465</v>
+        <v>1109.976819654464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>522.4357132182158</v>
+        <v>427.5364473220686</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903089</v>
+        <v>353.4995302903084</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741197</v>
+        <v>298.2821567741193</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878732</v>
+        <v>245.2683290878728</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861094</v>
+        <v>193.2776474861091</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569749</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097922</v>
+        <v>69.15615587097915</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J25" t="n">
         <v>111.8523770324067</v>
@@ -6172,25 +6172,25 @@
         <v>1927.51217624178</v>
       </c>
       <c r="S25" t="n">
-        <v>1828.240385053095</v>
+        <v>1735.826292068607</v>
       </c>
       <c r="T25" t="n">
-        <v>1701.373035518767</v>
+        <v>1514.059676638133</v>
       </c>
       <c r="U25" t="n">
-        <v>1507.169434540558</v>
+        <v>1224.956809763776</v>
       </c>
       <c r="V25" t="n">
-        <v>1347.384212230817</v>
+        <v>1065.171587454036</v>
       </c>
       <c r="W25" t="n">
-        <v>1057.967042193857</v>
+        <v>870.653683313222</v>
       </c>
       <c r="X25" t="n">
-        <v>924.8767571919857</v>
+        <v>735.0782253996919</v>
       </c>
       <c r="Y25" t="n">
-        <v>704.0841780484556</v>
+        <v>514.2856462561617</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1447.043518942784</v>
+        <v>1340.251487512674</v>
       </c>
       <c r="C26" t="n">
-        <v>1447.043518942784</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="D26" t="n">
-        <v>1136.227453284107</v>
+        <v>1018.738603520336</v>
       </c>
       <c r="E26" t="n">
-        <v>797.8888336339357</v>
+        <v>680.399983870165</v>
       </c>
       <c r="F26" t="n">
-        <v>434.3525617924015</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="G26" t="n">
-        <v>66.72974458547112</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J26" t="n">
         <v>255.6088755444966</v>
@@ -6248,28 +6248,28 @@
         <v>3266.806383205656</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273557</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748724</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T26" t="n">
-        <v>3249.912670895206</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U26" t="n">
-        <v>3043.831827117116</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V26" t="n">
-        <v>2760.218572721618</v>
+        <v>2653.426541291509</v>
       </c>
       <c r="W26" t="n">
-        <v>2454.899550399577</v>
+        <v>2348.107518969467</v>
       </c>
       <c r="X26" t="n">
-        <v>2128.883425086571</v>
+        <v>2022.091393656461</v>
       </c>
       <c r="Y26" t="n">
-        <v>1786.193726058833</v>
+        <v>1679.401694628723</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343963</v>
+        <v>941.7614826343964</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532693</v>
+        <v>767.3084533532694</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920181</v>
+        <v>618.3740436920182</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,10 +6300,10 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K27" t="n">
         <v>398.6712130564356</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585819</v>
+        <v>759.683877958582</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787483</v>
+        <v>638.1973279787484</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144859</v>
+        <v>535.530321514486</v>
       </c>
       <c r="E28" t="n">
-        <v>435.066860880166</v>
+        <v>435.0668608801662</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303289</v>
+        <v>335.6265463303291</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531212</v>
+        <v>215.3733426531214</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190523</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547114</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848132</v>
+        <v>158.3577622848134</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860962</v>
+        <v>408.8503304860964</v>
       </c>
       <c r="L28" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869992</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
@@ -6409,7 +6409,7 @@
         <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741535</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
         <v>1938.621200259134</v>
@@ -6427,7 +6427,7 @@
         <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407482</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.265052441604</v>
+        <v>1638.265052441605</v>
       </c>
       <c r="C29" t="n">
         <v>1316.752168449266</v>
       </c>
       <c r="D29" t="n">
-        <v>1018.738603520336</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E29" t="n">
-        <v>680.3999838701648</v>
+        <v>797.8888336339356</v>
       </c>
       <c r="F29" t="n">
-        <v>316.8637120286306</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444966</v>
+        <v>266.272655055594</v>
       </c>
       <c r="K29" t="n">
-        <v>589.4282492343431</v>
+        <v>600.0920287454405</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993849</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665773</v>
+        <v>1584.658146665774</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724555</v>
+        <v>2131.436963724556</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603892</v>
+        <v>2634.409434603893</v>
       </c>
       <c r="P29" t="n">
         <v>3029.183800961071</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716753</v>
+        <v>3277.470162716754</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273555</v>
+        <v>3336.487229273556</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748724</v>
+        <v>3273.646193748725</v>
       </c>
       <c r="T29" t="n">
-        <v>3115.118079081019</v>
+        <v>3115.11807908102</v>
       </c>
       <c r="U29" t="n">
-        <v>2909.037235302929</v>
+        <v>2909.03723530293</v>
       </c>
       <c r="V29" t="n">
         <v>2625.423980907432</v>
       </c>
       <c r="W29" t="n">
-        <v>2320.104958585391</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="X29" t="n">
-        <v>2320.104958585391</v>
+        <v>2320.104958585392</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.415259557652</v>
+        <v>1977.415259557653</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J30" t="n">
         <v>160.4070140760884</v>
@@ -6610,19 +6610,19 @@
         <v>335.6265463303291</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531213</v>
+        <v>215.3733426531215</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848133</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L31" t="n">
         <v>771.915514186999</v>
@@ -6649,7 +6649,7 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842702</v>
+        <v>1715.929751842703</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939627</v>
+        <v>1444.876970939628</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370213</v>
+        <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093055</v>
+        <v>896.6424918093056</v>
       </c>
       <c r="F32" t="n">
         <v>583.5663230570344</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393675</v>
+        <v>266.4036089393676</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444966</v>
@@ -6713,34 +6713,34 @@
         <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603893</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.183800961071</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716753</v>
+        <v>3277.470162716754</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273555</v>
+        <v>3336.487229273556</v>
       </c>
       <c r="S32" t="n">
         <v>3324.106296837987</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259545</v>
+        <v>3216.038285259546</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.41754457072</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264484</v>
+        <v>2827.264393264485</v>
       </c>
       <c r="W32" t="n">
         <v>2572.405474031707</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807963</v>
+        <v>2296.849451807964</v>
       </c>
       <c r="Y32" t="n">
         <v>2004.619855869488</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
         <v>459.1365886865626</v>
@@ -6768,13 +6768,13 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6783,7 +6783,7 @@
         <v>398.6712130564356</v>
       </c>
       <c r="L33" t="n">
-        <v>765.369373369101</v>
+        <v>765.3693733691009</v>
       </c>
       <c r="M33" t="n">
         <v>1212.645698591417</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>504.9569512267583</v>
+        <v>504.9569512267586</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9305043361879</v>
+        <v>433.9305043361881</v>
       </c>
       <c r="D34" t="n">
-        <v>381.7236009611886</v>
+        <v>381.7236009611888</v>
       </c>
       <c r="E34" t="n">
-        <v>331.7202434161319</v>
+        <v>331.720243416132</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182215</v>
+        <v>282.740031955558</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302769</v>
+        <v>115.037195330277</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547111</v>
+        <v>66.72974458547112</v>
       </c>
       <c r="J34" t="n">
         <v>111.8523770324067</v>
@@ -6886,7 +6886,7 @@
         <v>1833.736028105943</v>
       </c>
       <c r="T34" t="n">
-        <v>1709.879148712806</v>
+        <v>1611.969412675469</v>
       </c>
       <c r="U34" t="n">
         <v>1420.776281838449</v>
@@ -6895,13 +6895,13 @@
         <v>1166.091793632562</v>
       </c>
       <c r="W34" t="n">
-        <v>974.5843596329382</v>
+        <v>939.5680740238731</v>
       </c>
       <c r="X34" t="n">
-        <v>844.5045447722573</v>
+        <v>809.4882591631921</v>
       </c>
       <c r="Y34" t="n">
-        <v>623.7119656287272</v>
+        <v>588.6956800196619</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,7 +6920,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
@@ -6929,55 +6929,55 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7011,10 +7011,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647796</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368727</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983803</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898305</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919201</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658397</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.107160725841</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.361425262724</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.043308938549</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950193</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,25 +7181,25 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1379.44877978404</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578153</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150363</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170189</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473322</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.564101365071</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>374.6279184371641</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986718</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
         <v>231.3077836159869</v>
@@ -7558,13 +7558,13 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552289</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891714</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911541</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214673</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307331</v>
@@ -7640,52 +7640,52 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810575</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049859</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387306</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332751</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601601</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927782</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064571</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,28 +7731,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
         <v>2242.828302297192</v>
@@ -7764,7 +7764,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.2565075725906</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>429.3203246446838</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>377.8751198061914</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976416</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735746</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>211.383545822137</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7810,7 +7810,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
         <v>976.3387758760405</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649975</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953107</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682733</v>
+        <v>213.8677805682746</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505246</v>
+        <v>228.0473863505262</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905335</v>
+        <v>221.7573265905353</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710439</v>
+        <v>220.6851794710456</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355882</v>
+        <v>221.8567179355899</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385751</v>
+        <v>224.1990717385766</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758397</v>
+        <v>124.3650025758403</v>
       </c>
       <c r="K9" t="n">
-        <v>133.615330569365</v>
+        <v>133.6153305693659</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951897</v>
+        <v>132.8718554951909</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091465</v>
+        <v>135.5027961091478</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374187</v>
+        <v>124.5349651374201</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948883</v>
+        <v>136.3694007948895</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173281</v>
+        <v>128.9768164173291</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537933</v>
+        <v>136.641016853794</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202304</v>
+        <v>131.6226139202311</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628149</v>
+        <v>135.4863965628156</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250445</v>
+        <v>124.3279380250452</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599784</v>
+        <v>135.355245459979</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.074784788419493e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>10.7714944556534</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.77149445565487</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>10.77149445565344</v>
+        <v>10.77149445565482</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>10.77149445565405</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10.77149445565306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>10.77149445565385</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.77149445565297</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-2.060573933704291e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877944</v>
+        <v>15.25382330877945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>55.87771033587119</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.7355062576386</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866818</v>
       </c>
       <c r="X14" t="n">
-        <v>24.58158739187435</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>37.04476932188572</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287681</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>52.28225787287928</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.28225787287784</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24215,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>41.72511615688921</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>41.72511615689152</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.4466458960442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.72253478023512</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>12.67447572244993</v>
+        <v>128.9884369885821</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>934403.0790894513</v>
+        <v>934403.0790894519</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777949.7771201138</v>
+        <v>777949.7771201141</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777949.7771201141</v>
+        <v>777949.777120114</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779261.7016279749</v>
+        <v>779261.7016279751</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834932.1131218229</v>
+        <v>834932.1131218231</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834460.5370945546</v>
+        <v>834460.5370945545</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614460.1742158983</v>
+        <v>614460.1742158978</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173817</v>
+        <v>573398.2574173814</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173822</v>
+        <v>573398.2574173816</v>
       </c>
       <c r="G2" t="n">
-        <v>612660.0766032013</v>
+        <v>612660.0766032012</v>
       </c>
       <c r="H2" t="n">
-        <v>612660.0766032018</v>
+        <v>612660.0766032015</v>
       </c>
       <c r="I2" t="n">
-        <v>613290.3379636463</v>
+        <v>613290.3379636464</v>
       </c>
       <c r="J2" t="n">
-        <v>574028.5187778261</v>
+        <v>574028.5187778268</v>
       </c>
       <c r="K2" t="n">
-        <v>574028.5187778261</v>
+        <v>574028.5187778263</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="P2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655568</v>
+        <v>10420.33926655353</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.83087572</v>
+        <v>1151572.830875722</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487456</v>
+        <v>37580.10929487428</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.398701880481</v>
+        <v>723.3987018803099</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157044</v>
+        <v>77544.51094157045</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540876</v>
+        <v>207113.9109540877</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762659</v>
+        <v>459028.1883762667</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866003</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866008</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.443930362</v>
+        <v>91028.44393036215</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036207</v>
+        <v>91028.44393036215</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406856</v>
+        <v>91501.30607406871</v>
       </c>
       <c r="J4" t="n">
-        <v>61738.13938236657</v>
+        <v>61738.13938236664</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.13938236659</v>
+        <v>61738.13938236661</v>
       </c>
       <c r="L4" t="n">
-        <v>93397.00574718686</v>
+        <v>93397.00574718685</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="O4" t="n">
+        <v>93403.78684820635</v>
+      </c>
+      <c r="P4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93403.78684820639</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251488</v>
+        <v>33892.84951251482</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217025</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217019</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866886</v>
+        <v>82370.04347866889</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.8907182804</v>
+        <v>78420.89071828043</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.8907182804</v>
+        <v>78420.89071828041</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082555</v>
+        <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624988</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117678.9229356689</v>
+        <v>117674.5093578011</v>
       </c>
       <c r="C6" t="n">
-        <v>117678.9229356688</v>
+        <v>117674.5093578009</v>
       </c>
       <c r="D6" t="n">
-        <v>111118.7970605617</v>
+        <v>111114.3932166217</v>
       </c>
       <c r="E6" t="n">
-        <v>-717695.3440187797</v>
+        <v>-717836.6209187185</v>
       </c>
       <c r="F6" t="n">
-        <v>433877.4868569403</v>
+        <v>433736.2099570041</v>
       </c>
       <c r="G6" t="n">
-        <v>401846.8772957945</v>
+        <v>401836.473126478</v>
       </c>
       <c r="H6" t="n">
-        <v>439426.9865906705</v>
+        <v>439416.5824213524</v>
       </c>
       <c r="I6" t="n">
-        <v>438695.5897090284</v>
+        <v>438687.2864109132</v>
       </c>
       <c r="J6" t="n">
-        <v>433869.4886771791</v>
+        <v>433730.3126484451</v>
       </c>
       <c r="K6" t="n">
-        <v>433869.4886771791</v>
+        <v>433730.3126484447</v>
       </c>
       <c r="L6" t="n">
-        <v>362219.21088863</v>
+        <v>362219.2108886296</v>
       </c>
       <c r="M6" t="n">
-        <v>232745.0322896685</v>
+        <v>232745.032289669</v>
       </c>
       <c r="N6" t="n">
-        <v>439858.9432437569</v>
+        <v>439858.9432437565</v>
       </c>
       <c r="O6" t="n">
-        <v>439858.9432437565</v>
+        <v>439858.9432437567</v>
       </c>
       <c r="P6" t="n">
-        <v>439858.9432437565</v>
+        <v>439858.9432437564</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095756</v>
+        <v>12.16740883095504</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>834.1218073183893</v>
+      </c>
+      <c r="J4" t="n">
+        <v>834.1218073183893</v>
+      </c>
+      <c r="K4" t="n">
+        <v>834.1218073183891</v>
+      </c>
+      <c r="L4" t="n">
+        <v>834.1218073183891</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>834.121807318389</v>
-      </c>
-      <c r="J4" t="n">
-        <v>834.121807318389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>834.1218073183888</v>
-      </c>
-      <c r="L4" t="n">
-        <v>834.1218073183888</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696307</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511417946</v>
+        <v>0.754081551141951</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095756</v>
+        <v>12.16740883095504</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762341</v>
+        <v>1077.609291762343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.190928321119319e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,16 +27018,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2.720351916096547</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999278</v>
+        <v>338.9738594999279</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298813</v>
+        <v>208.5901246298817</v>
       </c>
       <c r="J8" t="n">
-        <v>7.79775723293821</v>
+        <v>7.797757232939068</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.708515212960613</v>
+        <v>4.708515212961705</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261642</v>
+        <v>146.7965109261648</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089169</v>
+        <v>207.9054371089171</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666964</v>
+        <v>88.49555587666983</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933147</v>
+        <v>98.53291113933182</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849783</v>
+        <v>171.1970486849784</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,13 +28029,13 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.790642330327</v>
+        <v>154.7906423303272</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358496</v>
+        <v>91.80793522358528</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293798</v>
+        <v>19.7203199429385</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564652446</v>
+        <v>0.06774881564707336</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451821979</v>
+        <v>84.32476451822018</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332692</v>
+        <v>176.3068339332694</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545305</v>
+        <v>223.6342222545306</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718509</v>
+        <v>86.47183148750428</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,13 +28767,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28782,13 +28782,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>91.48995205464215</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>91.48995205464239</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>91.48995205464345</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29244,22 +29244,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>91.48995205464304</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718509</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718509</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718509</v>
+        <v>91.48995205464232</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
     </row>
     <row r="33">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.26451592398817</v>
+        <v>96.930638676963</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.930638676963</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -29955,22 +29955,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696307</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.930638676963</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696307</v>
+        <v>62.26451592398877</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696307</v>
+        <v>96.930638676963</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>55.47778196371192</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810487</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30381,22 +30381,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>46.7252144056539</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30615,16 +30615,16 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>55.4777819637111</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
         <v>97.68472022810495</v>
@@ -30663,25 +30663,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="S43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>97.68472022810495</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.14548214544442</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810492</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560823</v>
+        <v>0.04891420635559812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393728</v>
+        <v>0.5009426158392694</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524588</v>
+        <v>1.885764940524198</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121674308</v>
+        <v>4.15153212167345</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476707205</v>
+        <v>6.222070476705919</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619462652</v>
+        <v>7.719028619461056</v>
       </c>
       <c r="M8" t="n">
-        <v>8.5889066367392</v>
+        <v>8.588906636737423</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125547071</v>
+        <v>8.727884125545268</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486098491</v>
+        <v>8.241493486096788</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016694413</v>
+        <v>7.033924016692959</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001584191</v>
+        <v>5.282184001583099</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014985478</v>
+        <v>3.072607014984843</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328424</v>
+        <v>1.114632477328193</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216751</v>
+        <v>0.2141219383216308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448658</v>
+        <v>0.003913136508447848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413512</v>
+        <v>0.02617140767412971</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317787</v>
+        <v>0.2527607004317264</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747454417</v>
+        <v>0.9010769747452555</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826951</v>
+        <v>2.472624090826439</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404994004</v>
+        <v>4.22610840499313</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284684471</v>
+        <v>5.682524284683296</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812871866</v>
+        <v>6.631237812870496</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945914642</v>
+        <v>6.806746945913235</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649556175</v>
+        <v>6.226843649554887</v>
       </c>
       <c r="P9" t="n">
-        <v>4.99759099700217</v>
+        <v>4.997590997001137</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228196</v>
+        <v>3.340757232227505</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311653</v>
+        <v>1.624923013311317</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594832</v>
+        <v>0.4861224188593827</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268867</v>
+        <v>0.1054891388268649</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456258</v>
+        <v>0.001721803136455903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943166</v>
+        <v>0.02194122903942712</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727324016</v>
+        <v>0.1950774727323613</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969312722</v>
+        <v>0.6598325969311357</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087818</v>
+        <v>1.551244893087497</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944877</v>
+        <v>2.54917188294435</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007867</v>
+        <v>3.262062361007192</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790181</v>
+        <v>3.43938738478947</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188666</v>
+        <v>3.357606440187972</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864395</v>
+        <v>3.101292991863754</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459988</v>
+        <v>2.653691919459439</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474591</v>
+        <v>1.837278733474211</v>
       </c>
       <c r="R10" t="n">
-        <v>0.986557443900263</v>
+        <v>0.9865574439000591</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824417315</v>
+        <v>0.3823757824416525</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771393523</v>
+        <v>0.09374888771391585</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241728</v>
+        <v>0.001196794311241481</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>563.0733298685649</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750267</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>70.38469299787822</v>
+        <v>70.3846929978796</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>201.5584954243666</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>549.6926102858798</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>518.824495343873</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>261.5657992593725</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37549,10 +37549,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554026</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
